--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1251439.022756865</v>
+        <v>1248958.348629756</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9373094.297639439</v>
+        <v>9373094.297639444</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="I9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12.73205987707309</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,14 +1333,14 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>34.87549083158532</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.87636653167834</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800346</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145497</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>323.9511434860164</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515424</v>
+        <v>226.3044465837322</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800336</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.4588260279767</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433877</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572831</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145485</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335015</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020904</v>
@@ -1859,7 +1859,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>130.9473273313351</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
-        <v>24.22561003005606</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1904,7 +1904,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2008,16 +2008,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I19" t="n">
         <v>49.37728379124557</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>307.7079050020904</v>
@@ -2096,7 +2096,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>87.33473490291679</v>
       </c>
       <c r="V20" t="n">
-        <v>250.3695275515071</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
@@ -2482,16 +2482,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I25" t="n">
         <v>49.37728379124555</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>113.5103646250813</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>234.0075547026439</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2807,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292589</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>156.5892371762731</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>17.1584709970869</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>378.7747174135649</v>
+        <v>378.7747174135648</v>
       </c>
       <c r="C32" t="n">
-        <v>361.3137675210918</v>
+        <v>361.3137675210917</v>
       </c>
       <c r="D32" t="n">
-        <v>350.7239173707673</v>
+        <v>350.7239173707671</v>
       </c>
       <c r="E32" t="n">
-        <v>377.9712458223461</v>
+        <v>377.971245822346</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9169214917957</v>
+        <v>402.9169214917956</v>
       </c>
       <c r="G32" t="n">
-        <v>406.9626014035377</v>
+        <v>406.9626014035376</v>
       </c>
       <c r="H32" t="n">
-        <v>290.6486401374048</v>
+        <v>290.6486401374046</v>
       </c>
       <c r="I32" t="n">
-        <v>37.61780552301023</v>
+        <v>37.61780552301011</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2286375382601</v>
+        <v>105.22863753826</v>
       </c>
       <c r="T32" t="n">
-        <v>199.9588458897044</v>
+        <v>199.9588458897043</v>
       </c>
       <c r="U32" t="n">
-        <v>247.0360477089863</v>
+        <v>247.0360477089861</v>
       </c>
       <c r="V32" t="n">
-        <v>323.7931342202192</v>
+        <v>323.7931342202191</v>
       </c>
       <c r="W32" t="n">
-        <v>345.2818444674973</v>
+        <v>345.2818444674972</v>
       </c>
       <c r="X32" t="n">
-        <v>365.7719764285533</v>
+        <v>365.7719764285532</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2788144061379</v>
+        <v>382.2788144061378</v>
       </c>
     </row>
     <row r="33">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.8728559320216</v>
+        <v>175.8728559320215</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.287696848712</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.4748383966533</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0666840091125</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.9730284201315</v>
       </c>
       <c r="S34" t="n">
-        <v>70.31677643351243</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>215.5898250262535</v>
+        <v>215.5898250262534</v>
       </c>
       <c r="U34" t="n">
-        <v>282.2527139556972</v>
+        <v>282.2527139556971</v>
       </c>
       <c r="V34" t="n">
-        <v>248.1785190739123</v>
+        <v>248.1785190739122</v>
       </c>
       <c r="W34" t="n">
-        <v>282.5638740866753</v>
+        <v>282.5638740866752</v>
       </c>
       <c r="X34" t="n">
-        <v>221.7505311391214</v>
+        <v>221.7505311391213</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.6255291021791</v>
+        <v>56.27342587930868</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124555</v>
@@ -3712,22 +3712,22 @@
         <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958324</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E8" t="n">
         <v>35.69701961884617</v>
@@ -4805,10 +4805,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
         <v>30.9115297805728</v>
@@ -4826,28 +4826,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>45.75363943919166</v>
       </c>
       <c r="D9" t="n">
+        <v>45.75363943919166</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45.75363943919166</v>
+      </c>
+      <c r="F9" t="n">
         <v>30.29632881784312</v>
       </c>
-      <c r="E9" t="n">
-        <v>14.83901819649459</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.978351653996518</v>
-      </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I9" t="n">
         <v>1.978351653996518</v>
@@ -4884,40 +4884,40 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M9" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N9" t="n">
         <v>30.9115297805728</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W9" t="n">
         <v>45.75363943919166</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
         <v>16.68152962255934</v>
@@ -4981,10 +4981,10 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
         <v>43.00470940373054</v>
@@ -4999,13 +4999,13 @@
         <v>43.00470940373054</v>
       </c>
       <c r="W10" t="n">
-        <v>43.00470940373054</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X10" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.00470940373054</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1680.389325139329</v>
+        <v>1803.821745863093</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.87644114699</v>
+        <v>1482.308861870755</v>
       </c>
       <c r="D11" t="n">
-        <v>1048.060375488313</v>
+        <v>1171.492796212078</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.060375488313</v>
+        <v>833.1541765619068</v>
       </c>
       <c r="F11" t="n">
-        <v>684.5241036467787</v>
+        <v>469.6179047203725</v>
       </c>
       <c r="G11" t="n">
-        <v>316.901286439848</v>
+        <v>101.9950875134421</v>
       </c>
       <c r="H11" t="n">
-        <v>66.76731899668845</v>
+        <v>66.7673189966893</v>
       </c>
       <c r="I11" t="n">
-        <v>66.76731899668845</v>
+        <v>66.7673189966893</v>
       </c>
       <c r="J11" t="n">
-        <v>255.6464499557139</v>
+        <v>255.6464499557147</v>
       </c>
       <c r="K11" t="n">
-        <v>589.4658236455604</v>
+        <v>589.4658236455612</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.500036893969</v>
+        <v>1053.004962554758</v>
       </c>
       <c r="M11" t="n">
-        <v>1574.031941565894</v>
+        <v>1586.536867226682</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.810758624676</v>
+        <v>2133.315684285465</v>
       </c>
       <c r="O11" t="n">
-        <v>2636.288155164759</v>
+        <v>2636.288155164802</v>
       </c>
       <c r="P11" t="n">
-        <v>3031.062521521937</v>
+        <v>3031.06252152198</v>
       </c>
       <c r="Q11" t="n">
-        <v>3279.34888327762</v>
+        <v>3279.348883277662</v>
       </c>
       <c r="R11" t="n">
-        <v>3338.365949834422</v>
+        <v>3338.365949834465</v>
       </c>
       <c r="S11" t="n">
-        <v>3299.096892731717</v>
+        <v>3275.524914309633</v>
       </c>
       <c r="T11" t="n">
-        <v>3140.568778064012</v>
+        <v>3116.996799641928</v>
       </c>
       <c r="U11" t="n">
-        <v>2934.487934285922</v>
+        <v>3116.996799641928</v>
       </c>
       <c r="V11" t="n">
-        <v>2650.874679890425</v>
+        <v>3116.996799641928</v>
       </c>
       <c r="W11" t="n">
-        <v>2345.555657568384</v>
+        <v>2811.677777319887</v>
       </c>
       <c r="X11" t="n">
-        <v>2019.539532255377</v>
+        <v>2485.661652006881</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.539532255377</v>
+        <v>2142.971952979142</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.7990570456137</v>
+        <v>941.7990570456141</v>
       </c>
       <c r="C12" t="n">
-        <v>767.3460277644867</v>
+        <v>767.3460277644871</v>
       </c>
       <c r="D12" t="n">
-        <v>618.4116181032355</v>
+        <v>618.4116181032359</v>
       </c>
       <c r="E12" t="n">
-        <v>459.1741630977799</v>
+        <v>459.1741630977804</v>
       </c>
       <c r="F12" t="n">
-        <v>312.6396051246649</v>
+        <v>312.6396051246654</v>
       </c>
       <c r="G12" t="n">
-        <v>176.276504957283</v>
+        <v>176.2765049572843</v>
       </c>
       <c r="H12" t="n">
-        <v>85.77461059515048</v>
+        <v>85.77461059515134</v>
       </c>
       <c r="I12" t="n">
-        <v>66.76731899668845</v>
+        <v>66.7673189966893</v>
       </c>
       <c r="J12" t="n">
-        <v>160.4445884873058</v>
+        <v>160.4445884873066</v>
       </c>
       <c r="K12" t="n">
-        <v>398.7087874676529</v>
+        <v>398.7087874676538</v>
       </c>
       <c r="L12" t="n">
-        <v>765.4069477803183</v>
+        <v>765.4069477803192</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.683273002634</v>
+        <v>1212.683273002635</v>
       </c>
       <c r="N12" t="n">
-        <v>1686.206316557089</v>
+        <v>1686.20631655709</v>
       </c>
       <c r="O12" t="n">
         <v>2097.167595975144</v>
@@ -5139,7 +5139,7 @@
         <v>2407.667187451247</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.308745097846</v>
+        <v>2565.308745097847</v>
       </c>
       <c r="R12" t="n">
         <v>2565.164391690362</v>
@@ -5148,16 +5148,16 @@
         <v>2435.726505183842</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.083504861697</v>
+        <v>2243.083504861698</v>
       </c>
       <c r="U12" t="n">
         <v>2015.015657996113</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.86354976437</v>
+        <v>1779.863549764371</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.626193036168</v>
+        <v>1525.626193036169</v>
       </c>
       <c r="X12" t="n">
         <v>1317.774692830636</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.721452369799</v>
+        <v>759.7214523698003</v>
       </c>
       <c r="C13" t="n">
-        <v>638.234902389966</v>
+        <v>638.2349023899667</v>
       </c>
       <c r="D13" t="n">
-        <v>535.5678959257035</v>
+        <v>535.5678959257043</v>
       </c>
       <c r="E13" t="n">
-        <v>435.1044352913837</v>
+        <v>435.1044352913844</v>
       </c>
       <c r="F13" t="n">
-        <v>335.6641207415465</v>
+        <v>335.6641207415474</v>
       </c>
       <c r="G13" t="n">
-        <v>215.4109170643388</v>
+        <v>215.4109170643396</v>
       </c>
       <c r="H13" t="n">
-        <v>116.6433632302698</v>
+        <v>116.6433632302707</v>
       </c>
       <c r="I13" t="n">
-        <v>66.76731899668845</v>
+        <v>66.7673189966893</v>
       </c>
       <c r="J13" t="n">
-        <v>158.3953366960306</v>
+        <v>158.3953366960313</v>
       </c>
       <c r="K13" t="n">
-        <v>408.8879048973136</v>
+        <v>408.8879048973144</v>
       </c>
       <c r="L13" t="n">
-        <v>771.9530885982163</v>
+        <v>771.9530885982172</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.615519450172</v>
+        <v>1162.615519450173</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.529281408443</v>
+        <v>1550.529281408444</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.364265581263</v>
+        <v>1896.364265581264</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.477151267329</v>
+        <v>2175.47715126733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.59283267225</v>
+        <v>2299.592832672251</v>
       </c>
       <c r="R13" t="n">
-        <v>2257.212008377851</v>
+        <v>2257.212008377852</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.975757152751</v>
+        <v>2112.975757152752</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.658774670351</v>
+        <v>1938.658774670352</v>
       </c>
       <c r="U13" t="n">
-        <v>1697.005540744067</v>
+        <v>1697.005540744068</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.770685486254</v>
+        <v>1489.770685486255</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.803148397366</v>
+        <v>1247.803148397368</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.263230447422</v>
+        <v>1067.263230447423</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.9202842519654</v>
+        <v>893.9202842519667</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2024.140668733825</v>
+        <v>1702.627784741486</v>
       </c>
       <c r="C14" t="n">
-        <v>1702.627784741487</v>
+        <v>1702.627784741486</v>
       </c>
       <c r="D14" t="n">
-        <v>1391.81171908281</v>
+        <v>1391.811719082809</v>
       </c>
       <c r="E14" t="n">
         <v>1053.473099432638</v>
@@ -5267,61 +5267,61 @@
         <v>689.9368275911042</v>
       </c>
       <c r="G14" t="n">
-        <v>322.3140103841738</v>
+        <v>322.3140103841734</v>
       </c>
       <c r="H14" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="I14" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J14" t="n">
-        <v>428.4648229203927</v>
+        <v>428.4648229203924</v>
       </c>
       <c r="K14" t="n">
-        <v>762.2841966102392</v>
+        <v>762.2841966102388</v>
       </c>
       <c r="L14" t="n">
         <v>1213.318409858648</v>
       </c>
       <c r="M14" t="n">
-        <v>1746.850314530573</v>
+        <v>1746.850314530572</v>
       </c>
       <c r="N14" t="n">
         <v>2293.629131589355</v>
       </c>
       <c r="O14" t="n">
-        <v>2796.601602468692</v>
+        <v>2796.601602468691</v>
       </c>
       <c r="P14" t="n">
         <v>3191.37596882587</v>
       </c>
       <c r="Q14" t="n">
-        <v>3484.925824819656</v>
+        <v>3484.925824819639</v>
       </c>
       <c r="R14" t="n">
-        <v>3609.002147050711</v>
+        <v>3609.002147050694</v>
       </c>
       <c r="S14" t="n">
-        <v>3609.002147050711</v>
+        <v>3609.002147050694</v>
       </c>
       <c r="T14" t="n">
-        <v>3609.002147050711</v>
+        <v>3450.47403238299</v>
       </c>
       <c r="U14" t="n">
-        <v>3609.002147050711</v>
+        <v>3244.393188604899</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.388892655214</v>
+        <v>3015.802838520321</v>
       </c>
       <c r="W14" t="n">
-        <v>3020.069870333173</v>
+        <v>2710.48381619828</v>
       </c>
       <c r="X14" t="n">
-        <v>2694.053745020166</v>
+        <v>2384.467690885273</v>
       </c>
       <c r="Y14" t="n">
-        <v>2351.364045992427</v>
+        <v>2041.777991857535</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>947.2117809899395</v>
+        <v>947.2117809899391</v>
       </c>
       <c r="C15" t="n">
-        <v>772.7587517088125</v>
+        <v>772.7587517088122</v>
       </c>
       <c r="D15" t="n">
-        <v>623.8243420475612</v>
+        <v>623.824342047561</v>
       </c>
       <c r="E15" t="n">
-        <v>464.5868870421057</v>
+        <v>464.5868870421054</v>
       </c>
       <c r="F15" t="n">
-        <v>318.0523290689906</v>
+        <v>318.0523290689905</v>
       </c>
       <c r="G15" t="n">
-        <v>181.6892289016087</v>
+        <v>181.6892289016084</v>
       </c>
       <c r="H15" t="n">
-        <v>91.18733453947627</v>
+        <v>91.18733453947594</v>
       </c>
       <c r="I15" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J15" t="n">
-        <v>165.8573124316316</v>
+        <v>165.8573124316315</v>
       </c>
       <c r="K15" t="n">
-        <v>404.1215114119787</v>
+        <v>404.1215114119786</v>
       </c>
       <c r="L15" t="n">
         <v>770.8196717246441</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.1341763141239</v>
+        <v>765.1341763141249</v>
       </c>
       <c r="C16" t="n">
-        <v>643.647626334292</v>
+        <v>643.6476263342913</v>
       </c>
       <c r="D16" t="n">
-        <v>540.9806198700295</v>
+        <v>540.9806198700288</v>
       </c>
       <c r="E16" t="n">
-        <v>440.5171592357096</v>
+        <v>440.517159235709</v>
       </c>
       <c r="F16" t="n">
-        <v>341.0768446858725</v>
+        <v>341.0768446858719</v>
       </c>
       <c r="G16" t="n">
-        <v>220.8236410086646</v>
+        <v>220.8236410086641</v>
       </c>
       <c r="H16" t="n">
-        <v>122.0560871745956</v>
+        <v>122.0560871745953</v>
       </c>
       <c r="I16" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J16" t="n">
-        <v>163.8080606403563</v>
+        <v>163.8080606403561</v>
       </c>
       <c r="K16" t="n">
-        <v>414.3006288416392</v>
+        <v>414.300628841639</v>
       </c>
       <c r="L16" t="n">
         <v>777.3658125425418</v>
@@ -5467,7 +5467,7 @@
         <v>1944.071498614676</v>
       </c>
       <c r="U16" t="n">
-        <v>1702.418264688393</v>
+        <v>1702.418264688392</v>
       </c>
       <c r="V16" t="n">
         <v>1495.183409430579</v>
@@ -5479,7 +5479,7 @@
         <v>1072.675954391747</v>
       </c>
       <c r="Y16" t="n">
-        <v>899.3330081962904</v>
+        <v>899.3330081962913</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2024.140668733825</v>
+        <v>1584.763844905736</v>
       </c>
       <c r="C17" t="n">
-        <v>1702.627784741486</v>
+        <v>1584.763844905736</v>
       </c>
       <c r="D17" t="n">
-        <v>1391.811719082809</v>
+        <v>1273.947779247059</v>
       </c>
       <c r="E17" t="n">
-        <v>1053.473099432638</v>
+        <v>935.609159596888</v>
       </c>
       <c r="F17" t="n">
-        <v>689.936827591104</v>
+        <v>572.0728877553538</v>
       </c>
       <c r="G17" t="n">
-        <v>322.3140103841738</v>
+        <v>204.4500705484231</v>
       </c>
       <c r="H17" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="I17" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J17" t="n">
-        <v>261.0591739000397</v>
+        <v>261.0591739000393</v>
       </c>
       <c r="K17" t="n">
-        <v>594.8785475898862</v>
+        <v>597.3558500950214</v>
       </c>
       <c r="L17" t="n">
-        <v>1045.912760838295</v>
+        <v>1048.39006334343</v>
       </c>
       <c r="M17" t="n">
-        <v>1579.44466551022</v>
+        <v>1581.921968015354</v>
       </c>
       <c r="N17" t="n">
-        <v>2126.223482569002</v>
+        <v>2128.700785074137</v>
       </c>
       <c r="O17" t="n">
-        <v>2629.195953448339</v>
+        <v>2631.673255953473</v>
       </c>
       <c r="P17" t="n">
-        <v>3301.698718738226</v>
+        <v>3026.447622310651</v>
       </c>
       <c r="Q17" t="n">
-        <v>3549.985080493908</v>
+        <v>3484.925824819639</v>
       </c>
       <c r="R17" t="n">
-        <v>3609.002147050711</v>
+        <v>3609.002147050694</v>
       </c>
       <c r="S17" t="n">
-        <v>3546.161111525879</v>
+        <v>3546.161111525863</v>
       </c>
       <c r="T17" t="n">
-        <v>3521.690798364206</v>
+        <v>3387.632996858158</v>
       </c>
       <c r="U17" t="n">
-        <v>3315.609954586116</v>
+        <v>3181.552153080068</v>
       </c>
       <c r="V17" t="n">
-        <v>3031.996700190619</v>
+        <v>2897.938898684571</v>
       </c>
       <c r="W17" t="n">
-        <v>3031.996700190619</v>
+        <v>2592.61987636253</v>
       </c>
       <c r="X17" t="n">
-        <v>2705.980574877612</v>
+        <v>2266.603751049523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2363.290875849873</v>
+        <v>1923.914052021785</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>947.2117809899395</v>
+        <v>947.211780989939</v>
       </c>
       <c r="C18" t="n">
-        <v>772.7587517088125</v>
+        <v>772.758751708812</v>
       </c>
       <c r="D18" t="n">
-        <v>623.8243420475612</v>
+        <v>623.8243420475608</v>
       </c>
       <c r="E18" t="n">
-        <v>464.5868870421057</v>
+        <v>464.5868870421053</v>
       </c>
       <c r="F18" t="n">
-        <v>318.0523290689906</v>
+        <v>318.0523290689903</v>
       </c>
       <c r="G18" t="n">
-        <v>181.6892289016087</v>
+        <v>181.6892289016084</v>
       </c>
       <c r="H18" t="n">
-        <v>91.18733453947627</v>
+        <v>91.18733453947596</v>
       </c>
       <c r="I18" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J18" t="n">
         <v>165.8573124316316</v>
@@ -5598,7 +5598,7 @@
         <v>404.1215114119787</v>
       </c>
       <c r="L18" t="n">
-        <v>770.8196717246441</v>
+        <v>770.819671724644</v>
       </c>
       <c r="M18" t="n">
         <v>1218.09599694696</v>
@@ -5622,13 +5622,13 @@
         <v>2441.139229128167</v>
       </c>
       <c r="T18" t="n">
-        <v>2248.496228806023</v>
+        <v>2248.496228806022</v>
       </c>
       <c r="U18" t="n">
         <v>2020.428381940438</v>
       </c>
       <c r="V18" t="n">
-        <v>1785.276273708696</v>
+        <v>1785.276273708695</v>
       </c>
       <c r="W18" t="n">
         <v>1531.038916980494</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>765.1341763141254</v>
+        <v>765.1341763141249</v>
       </c>
       <c r="C19" t="n">
-        <v>643.6476263342918</v>
+        <v>643.6476263342913</v>
       </c>
       <c r="D19" t="n">
-        <v>540.9806198700293</v>
+        <v>540.9806198700288</v>
       </c>
       <c r="E19" t="n">
-        <v>440.5171592357094</v>
+        <v>440.517159235709</v>
       </c>
       <c r="F19" t="n">
-        <v>341.0768446858723</v>
+        <v>341.0768446858719</v>
       </c>
       <c r="G19" t="n">
-        <v>220.8236410086645</v>
+        <v>220.8236410086642</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0560871745956</v>
+        <v>122.0560871745953</v>
       </c>
       <c r="I19" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J19" t="n">
-        <v>163.8080606403564</v>
+        <v>163.808060640356</v>
       </c>
       <c r="K19" t="n">
-        <v>414.3006288416394</v>
+        <v>414.300628841639</v>
       </c>
       <c r="L19" t="n">
-        <v>777.3658125425429</v>
+        <v>777.3658125425417</v>
       </c>
       <c r="M19" t="n">
-        <v>1168.028243394499</v>
+        <v>1168.028243394497</v>
       </c>
       <c r="N19" t="n">
-        <v>1555.94200535277</v>
+        <v>1555.942005352768</v>
       </c>
       <c r="O19" t="n">
-        <v>1901.77698952559</v>
+        <v>1901.776989525589</v>
       </c>
       <c r="P19" t="n">
-        <v>2180.889875211656</v>
+        <v>2180.889875211655</v>
       </c>
       <c r="Q19" t="n">
-        <v>2305.005556616577</v>
+        <v>2305.005556616576</v>
       </c>
       <c r="R19" t="n">
-        <v>2262.624732322178</v>
+        <v>2262.624732322177</v>
       </c>
       <c r="S19" t="n">
-        <v>2118.388481097078</v>
+        <v>2118.388481097077</v>
       </c>
       <c r="T19" t="n">
-        <v>1944.071498614677</v>
+        <v>1944.071498614676</v>
       </c>
       <c r="U19" t="n">
-        <v>1702.418264688394</v>
+        <v>1702.418264688393</v>
       </c>
       <c r="V19" t="n">
         <v>1495.18340943058</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.215872341693</v>
+        <v>1253.215872341692</v>
       </c>
       <c r="X19" t="n">
-        <v>1072.675954391749</v>
+        <v>1072.675954391748</v>
       </c>
       <c r="Y19" t="n">
-        <v>899.3330081962919</v>
+        <v>899.3330081962913</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1774.006701290665</v>
+        <v>1702.627784741486</v>
       </c>
       <c r="C20" t="n">
-        <v>1452.493817298327</v>
+        <v>1702.627784741486</v>
       </c>
       <c r="D20" t="n">
-        <v>1141.67775163965</v>
+        <v>1391.811719082809</v>
       </c>
       <c r="E20" t="n">
-        <v>803.3391319894788</v>
+        <v>1053.473099432638</v>
       </c>
       <c r="F20" t="n">
-        <v>439.8028601479444</v>
+        <v>689.9368275911036</v>
       </c>
       <c r="G20" t="n">
-        <v>72.18004294101422</v>
+        <v>322.3140103841734</v>
       </c>
       <c r="H20" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="I20" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J20" t="n">
-        <v>261.0591739000397</v>
+        <v>428.4648229203924</v>
       </c>
       <c r="K20" t="n">
-        <v>594.8785475898862</v>
+        <v>807.5476908483261</v>
       </c>
       <c r="L20" t="n">
-        <v>1045.912760838295</v>
+        <v>1258.581904096735</v>
       </c>
       <c r="M20" t="n">
-        <v>1857.173064442929</v>
+        <v>1792.11380876866</v>
       </c>
       <c r="N20" t="n">
-        <v>2403.951881501711</v>
+        <v>2338.892625827442</v>
       </c>
       <c r="O20" t="n">
-        <v>2906.924352381048</v>
+        <v>2841.865096706779</v>
       </c>
       <c r="P20" t="n">
-        <v>3301.698718738226</v>
+        <v>3236.639463063957</v>
       </c>
       <c r="Q20" t="n">
-        <v>3549.985080493908</v>
+        <v>3484.925824819639</v>
       </c>
       <c r="R20" t="n">
-        <v>3609.002147050711</v>
+        <v>3609.002147050694</v>
       </c>
       <c r="S20" t="n">
-        <v>3546.161111525879</v>
+        <v>3546.161111525863</v>
       </c>
       <c r="T20" t="n">
-        <v>3546.161111525879</v>
+        <v>3387.632996858158</v>
       </c>
       <c r="U20" t="n">
-        <v>3340.080267747789</v>
+        <v>3299.416092915817</v>
       </c>
       <c r="V20" t="n">
-        <v>3087.1817550695</v>
+        <v>3015.80283852032</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.862732747459</v>
+        <v>2710.483816198279</v>
       </c>
       <c r="X20" t="n">
-        <v>2455.846607434452</v>
+        <v>2384.467690885273</v>
       </c>
       <c r="Y20" t="n">
-        <v>2113.156908406714</v>
+        <v>2041.777991857534</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>947.2117809899394</v>
+        <v>947.211780989939</v>
       </c>
       <c r="C21" t="n">
-        <v>772.7587517088124</v>
+        <v>772.758751708812</v>
       </c>
       <c r="D21" t="n">
-        <v>623.8243420475611</v>
+        <v>623.8243420475608</v>
       </c>
       <c r="E21" t="n">
-        <v>464.5868870421056</v>
+        <v>464.5868870421053</v>
       </c>
       <c r="F21" t="n">
-        <v>318.0523290689906</v>
+        <v>318.0523290689903</v>
       </c>
       <c r="G21" t="n">
-        <v>181.6892289016087</v>
+        <v>181.6892289016084</v>
       </c>
       <c r="H21" t="n">
-        <v>91.18733453947624</v>
+        <v>91.18733453947593</v>
       </c>
       <c r="I21" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J21" t="n">
-        <v>165.8573124316316</v>
+        <v>165.8573124316312</v>
       </c>
       <c r="K21" t="n">
-        <v>404.1215114119787</v>
+        <v>404.1215114119784</v>
       </c>
       <c r="L21" t="n">
-        <v>770.8196717246441</v>
+        <v>770.8196717246437</v>
       </c>
       <c r="M21" t="n">
         <v>1218.09599694696</v>
@@ -5859,13 +5859,13 @@
         <v>2441.139229128167</v>
       </c>
       <c r="T21" t="n">
-        <v>2248.496228806023</v>
+        <v>2248.496228806022</v>
       </c>
       <c r="U21" t="n">
         <v>2020.428381940438</v>
       </c>
       <c r="V21" t="n">
-        <v>1785.276273708696</v>
+        <v>1785.276273708695</v>
       </c>
       <c r="W21" t="n">
         <v>1531.038916980494</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>765.1341763141254</v>
+        <v>765.1341763141247</v>
       </c>
       <c r="C22" t="n">
-        <v>643.6476263342918</v>
+        <v>643.6476263342911</v>
       </c>
       <c r="D22" t="n">
-        <v>540.9806198700293</v>
+        <v>540.9806198700287</v>
       </c>
       <c r="E22" t="n">
-        <v>440.5171592357094</v>
+        <v>440.5171592357089</v>
       </c>
       <c r="F22" t="n">
-        <v>341.0768446858723</v>
+        <v>341.0768446858718</v>
       </c>
       <c r="G22" t="n">
-        <v>220.8236410086645</v>
+        <v>220.8236410086641</v>
       </c>
       <c r="H22" t="n">
-        <v>122.0560871745956</v>
+        <v>122.0560871745952</v>
       </c>
       <c r="I22" t="n">
-        <v>72.18004294101422</v>
+        <v>72.18004294101389</v>
       </c>
       <c r="J22" t="n">
-        <v>163.8080606403564</v>
+        <v>163.808060640356</v>
       </c>
       <c r="K22" t="n">
-        <v>414.3006288416394</v>
+        <v>414.3006288416391</v>
       </c>
       <c r="L22" t="n">
-        <v>777.3658125425421</v>
+        <v>777.3658125425418</v>
       </c>
       <c r="M22" t="n">
         <v>1168.028243394498</v>
       </c>
       <c r="N22" t="n">
-        <v>1555.94200535277</v>
+        <v>1555.942005352769</v>
       </c>
       <c r="O22" t="n">
-        <v>1901.77698952559</v>
+        <v>1901.776989525589</v>
       </c>
       <c r="P22" t="n">
-        <v>2180.889875211656</v>
+        <v>2180.889875211655</v>
       </c>
       <c r="Q22" t="n">
-        <v>2305.005556616577</v>
+        <v>2305.005556616576</v>
       </c>
       <c r="R22" t="n">
-        <v>2262.624732322178</v>
+        <v>2262.624732322177</v>
       </c>
       <c r="S22" t="n">
-        <v>2118.388481097078</v>
+        <v>2118.388481097077</v>
       </c>
       <c r="T22" t="n">
-        <v>1944.071498614677</v>
+        <v>1944.071498614676</v>
       </c>
       <c r="U22" t="n">
-        <v>1702.418264688394</v>
+        <v>1702.418264688393</v>
       </c>
       <c r="V22" t="n">
-        <v>1495.18340943058</v>
+        <v>1495.183409430579</v>
       </c>
       <c r="W22" t="n">
-        <v>1253.215872341693</v>
+        <v>1253.215872341692</v>
       </c>
       <c r="X22" t="n">
-        <v>1072.675954391749</v>
+        <v>1072.675954391748</v>
       </c>
       <c r="Y22" t="n">
-        <v>899.3330081962919</v>
+        <v>899.3330081962911</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697161</v>
@@ -5975,7 +5975,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5987,28 +5987,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2580.208754682581</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834459</v>
@@ -6029,7 +6029,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6130,13 +6130,13 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
@@ -6151,7 +6151,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6175,7 +6175,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
         <v>1711.385138644068</v>
@@ -6184,13 +6184,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6263,7 +6263,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>210.217968413123</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>210.217968413123</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6406,7 +6406,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783407</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413801</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433627</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y28" t="n">
-        <v>391.8664332433627</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
@@ -6476,37 +6476,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.14211023273</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,19 +6531,19 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.5269503710301</v>
+        <v>510.7061876676657</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431232</v>
+        <v>510.7061876676657</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>360.58954825533</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.58954825533</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.58954825533</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1798.172519462003</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1509.069652587647</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1254.38516438176</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W31" t="n">
-        <v>964.9679943447999</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X31" t="n">
-        <v>964.9679943447999</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.1754152012697</v>
+        <v>692.3546524979055</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1980.034928324822</v>
       </c>
       <c r="D32" t="n">
-        <v>1625.768345122027</v>
+        <v>1625.768345122026</v>
       </c>
       <c r="E32" t="n">
         <v>1243.979207927738</v>
       </c>
       <c r="F32" t="n">
-        <v>836.9924185420856</v>
+        <v>836.9924185420855</v>
       </c>
       <c r="G32" t="n">
         <v>425.9190837910373</v>
       </c>
       <c r="H32" t="n">
-        <v>132.3345988037596</v>
+        <v>132.3345988037595</v>
       </c>
       <c r="I32" t="n">
-        <v>94.33681544718362</v>
+        <v>94.33681544718358</v>
       </c>
       <c r="J32" t="n">
         <v>450.6215954265621</v>
@@ -6704,31 +6704,31 @@
         <v>1105.344927561862</v>
       </c>
       <c r="L32" t="n">
-        <v>1921.402131247317</v>
+        <v>1556.37914081027</v>
       </c>
       <c r="M32" t="n">
-        <v>2899.952434077146</v>
+        <v>2371.179872234071</v>
       </c>
       <c r="N32" t="n">
-        <v>3446.731251135928</v>
+        <v>2917.958689292853</v>
       </c>
       <c r="O32" t="n">
-        <v>3949.703722015265</v>
+        <v>3420.93116017219</v>
       </c>
       <c r="P32" t="n">
-        <v>4344.478088372443</v>
+        <v>4134.286247619136</v>
       </c>
       <c r="Q32" t="n">
-        <v>4592.764450128126</v>
+        <v>4592.764450128124</v>
       </c>
       <c r="R32" t="n">
-        <v>4716.840772359181</v>
+        <v>4716.840772359179</v>
       </c>
       <c r="S32" t="n">
-        <v>4610.549219290231</v>
+        <v>4610.549219290229</v>
       </c>
       <c r="T32" t="n">
-        <v>4408.570587078408</v>
+        <v>4408.570587078407</v>
       </c>
       <c r="U32" t="n">
         <v>4159.0392257562</v>
@@ -6743,7 +6743,7 @@
         <v>3113.739271093301</v>
       </c>
       <c r="Y32" t="n">
-        <v>2727.599054521445</v>
+        <v>2727.599054521444</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>645.9811145537305</v>
       </c>
       <c r="E33" t="n">
-        <v>486.7436595482751</v>
+        <v>486.743659548275</v>
       </c>
       <c r="F33" t="n">
         <v>340.20910157516</v>
@@ -6771,13 +6771,13 @@
         <v>203.8460014077781</v>
       </c>
       <c r="H33" t="n">
-        <v>113.3441070456457</v>
+        <v>113.3441070456456</v>
       </c>
       <c r="I33" t="n">
-        <v>94.33681544718362</v>
+        <v>94.33681544718358</v>
       </c>
       <c r="J33" t="n">
-        <v>188.014084937801</v>
+        <v>188.0140849378009</v>
       </c>
       <c r="K33" t="n">
         <v>426.2782839181481</v>
@@ -6792,10 +6792,10 @@
         <v>1713.775813007584</v>
       </c>
       <c r="O33" t="n">
-        <v>2124.737092425639</v>
+        <v>2124.737092425638</v>
       </c>
       <c r="P33" t="n">
-        <v>2435.236683901742</v>
+        <v>2435.236683901741</v>
       </c>
       <c r="Q33" t="n">
         <v>2592.878241548341</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>258.0405366685094</v>
+        <v>403.1878611495728</v>
       </c>
       <c r="C34" t="n">
-        <v>258.0405366685094</v>
+        <v>238.2507936256213</v>
       </c>
       <c r="D34" t="n">
-        <v>258.0405366685094</v>
+        <v>238.2507936256213</v>
       </c>
       <c r="E34" t="n">
-        <v>258.0405366685094</v>
+        <v>94.33681544718358</v>
       </c>
       <c r="F34" t="n">
-        <v>258.0405366685094</v>
+        <v>94.33681544718358</v>
       </c>
       <c r="G34" t="n">
-        <v>94.33681544718362</v>
+        <v>94.33681544718358</v>
       </c>
       <c r="H34" t="n">
-        <v>94.33681544718362</v>
+        <v>94.33681544718358</v>
       </c>
       <c r="I34" t="n">
-        <v>94.33681544718362</v>
+        <v>94.33681544718358</v>
       </c>
       <c r="J34" t="n">
         <v>143.3789809015358</v>
       </c>
       <c r="K34" t="n">
-        <v>351.2856968578287</v>
+        <v>351.2856968578289</v>
       </c>
       <c r="L34" t="n">
-        <v>671.7650283137414</v>
+        <v>671.7650283137416</v>
       </c>
       <c r="M34" t="n">
         <v>1019.841606920707</v>
       </c>
       <c r="N34" t="n">
-        <v>1365.169516633988</v>
+        <v>1365.169516633989</v>
       </c>
       <c r="O34" t="n">
-        <v>1668.418648561818</v>
+        <v>1668.418648561819</v>
       </c>
       <c r="P34" t="n">
-        <v>1904.945682002894</v>
+        <v>1904.945682002895</v>
       </c>
       <c r="Q34" t="n">
         <v>1986.475511162826</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.475511162826</v>
+        <v>1900.644169324309</v>
       </c>
       <c r="S34" t="n">
-        <v>1915.448464260288</v>
+        <v>1900.644169324309</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.680964233769</v>
+        <v>1682.876669297791</v>
       </c>
       <c r="U34" t="n">
-        <v>1412.577212763368</v>
+        <v>1397.77291782739</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.891839961436</v>
+        <v>1147.087545025458</v>
       </c>
       <c r="W34" t="n">
-        <v>876.4737853284307</v>
+        <v>861.6694903924531</v>
       </c>
       <c r="X34" t="n">
-        <v>652.4833498343687</v>
+        <v>637.6790548983912</v>
       </c>
       <c r="Y34" t="n">
-        <v>435.6898860947938</v>
+        <v>580.8372105758572</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
@@ -6935,22 +6935,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P35" t="n">
         <v>3474.791320094414</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D36" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F36" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668915</v>
@@ -7017,16 +7017,16 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7075,10 +7075,10 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415473</v>
@@ -7093,13 +7093,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7114,19 +7114,19 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
@@ -7135,10 +7135,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
         <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467785</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7412,28 +7412,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>810.8729904741849</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1261.907203722594</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2240.457506552422</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.98316084772</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,7 +7567,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
         <v>423.267502797314</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,25 +7646,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659143</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N44" t="n">
-        <v>2410.244144161086</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490542</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519666</v>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>220.0898510449801</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>235.7664149699868</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>230.3462332272723</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>229.4130635965891</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8064,16 +8064,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>142.1340339220179</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>142.596244444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>133.9744074143298</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8143,13 +8143,13 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>138.9257839476046</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>127.6855444652327</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>138.4565384518423</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
         <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
         <v>153.2388248701553</v>
@@ -8541,16 +8541,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
         <v>149.2771449294653</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>12.63123804119965</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>12.63123804115787</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.72070125060932</v>
+        <v>45.72070125059324</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.502325762763405</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>280.5337362956656</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>45.72070125059315</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>280.5337362956657</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>274.8351763665431</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10352,10 +10352,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>368.7100913505524</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>284.109926011996</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>124.5185911550042</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>40.02214132148566</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>167.736966642836</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>108.7354935515717</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>124.5185911550049</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711891</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>15.3027375151355</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>212.7571369371426</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.33625863790496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.892264536872972e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.80756155887167</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958335</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210277</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403095</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>54.47267526781013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.755040557327447e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>116.6853004373928</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>132.7172234909715</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>116.6853004373926</v>
       </c>
       <c r="V20" t="n">
-        <v>30.40759430003521</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>35.10510839313105</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>52.51544363394713</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983803</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>62.95971209989602</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>201.4261823550079</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>163.2876968487121</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.6563487682967</v>
+        <v>144.6563487682965</v>
       </c>
       <c r="E34" t="n">
-        <v>142.4748383966535</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.4619237730155</v>
+        <v>141.4619237730154</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>162.0666840091124</v>
       </c>
       <c r="H34" t="n">
-        <v>140.7958906644051</v>
+        <v>140.7958906644049</v>
       </c>
       <c r="I34" t="n">
-        <v>92.39329615992239</v>
+        <v>92.39329615992226</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.97302842013161</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.4931246480138</v>
+        <v>185.809901081526</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>158.3521032228703</v>
       </c>
     </row>
     <row r="35">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>991565.6946521088</v>
+        <v>991565.6946521085</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869462.0457313489</v>
+        <v>869462.0457313536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899905.9377723823</v>
+        <v>899905.9377723804</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899905.9377723822</v>
+        <v>899905.9377723804</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899905.9377723823</v>
+        <v>899905.9377723804</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938558.5243084377</v>
+        <v>938558.5243084378</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939539.486869672</v>
+        <v>939539.4868696721</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>512047.7116981489</v>
+      </c>
+      <c r="C2" t="n">
         <v>512047.711698149</v>
-      </c>
-      <c r="C2" t="n">
-        <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>478447.7800322574</v>
+        <v>478447.7800322593</v>
       </c>
       <c r="F2" t="n">
-        <v>491510.6991495848</v>
+        <v>491510.6991495838</v>
       </c>
       <c r="G2" t="n">
-        <v>491510.6991495847</v>
+        <v>491510.6991495838</v>
       </c>
       <c r="H2" t="n">
-        <v>491510.6991495847</v>
+        <v>491510.699149584</v>
       </c>
       <c r="I2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="J2" t="n">
         <v>496352.233608729</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="L2" t="n">
-        <v>497768.0639499899</v>
+        <v>497768.0639499897</v>
       </c>
       <c r="M2" t="n">
+        <v>513151.1061651766</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="O2" t="n">
         <v>513151.1061651767</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>513151.1061651767</v>
-      </c>
-      <c r="O2" t="n">
-        <v>513151.1061651769</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.1061651763</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>4753.489354326401</v>
       </c>
       <c r="E3" t="n">
-        <v>1157731.576262253</v>
+        <v>1157731.576262256</v>
       </c>
       <c r="F3" t="n">
-        <v>19386.07676089853</v>
+        <v>19386.07676089437</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>29806.00111458799</v>
+        <v>29806.00111458909</v>
       </c>
       <c r="J3" t="n">
-        <v>47142.0921587296</v>
+        <v>47142.09215872949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3167.29939993257</v>
+        <v>3167.299399932669</v>
       </c>
       <c r="M3" t="n">
-        <v>197495.6500561363</v>
+        <v>197495.650056139</v>
       </c>
       <c r="N3" t="n">
-        <v>16571.52796889848</v>
+        <v>16571.52796889488</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>56104.05985149615</v>
+        <v>56104.05985149724</v>
       </c>
       <c r="F4" t="n">
-        <v>63066.68503963179</v>
+        <v>63066.68503963143</v>
       </c>
       <c r="G4" t="n">
-        <v>63066.68503963187</v>
+        <v>63066.68503963148</v>
       </c>
       <c r="H4" t="n">
-        <v>63066.68503963187</v>
+        <v>63066.68503963144</v>
       </c>
       <c r="I4" t="n">
-        <v>74601.16991356855</v>
+        <v>74601.16991356853</v>
       </c>
       <c r="J4" t="n">
-        <v>45917.41774240545</v>
+        <v>45917.41774240544</v>
       </c>
       <c r="K4" t="n">
-        <v>45917.41774240549</v>
+        <v>45917.41774240541</v>
       </c>
       <c r="L4" t="n">
-        <v>48343.52700661829</v>
+        <v>48343.52700661837</v>
       </c>
       <c r="M4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356849</v>
       </c>
       <c r="N4" t="n">
-        <v>74601.16991356852</v>
+        <v>74601.1699135685</v>
       </c>
       <c r="O4" t="n">
         <v>74601.16991356853</v>
       </c>
       <c r="P4" t="n">
-        <v>74601.1699135685</v>
+        <v>74601.16991356853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>33627.59999999997</v>
       </c>
       <c r="C5" t="n">
         <v>33627.6</v>
@@ -26476,16 +26476,16 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>78449.44727080557</v>
+        <v>78449.44727080621</v>
       </c>
       <c r="F5" t="n">
-        <v>82563.11746849315</v>
+        <v>82563.11746849291</v>
       </c>
       <c r="G5" t="n">
-        <v>82563.11746849316</v>
+        <v>82563.11746849291</v>
       </c>
       <c r="H5" t="n">
-        <v>82563.11746849316</v>
+        <v>82563.11746849291</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
@@ -26494,10 +26494,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="L5" t="n">
-        <v>95785.95142935961</v>
+        <v>95785.95142935959</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26506,10 +26506,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="P5" t="n">
         <v>89377.9416748061</v>
-      </c>
-      <c r="P5" t="n">
-        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63647.71308519014</v>
+        <v>63643.29950732211</v>
       </c>
       <c r="C6" t="n">
-        <v>63647.71308518996</v>
+        <v>63643.29950732179</v>
       </c>
       <c r="D6" t="n">
         <v>60119.99610326476</v>
       </c>
       <c r="E6" t="n">
-        <v>-813837.3033522977</v>
+        <v>-813976.1166568322</v>
       </c>
       <c r="F6" t="n">
-        <v>326494.8198805613</v>
+        <v>326408.2582525027</v>
       </c>
       <c r="G6" t="n">
-        <v>345880.8966414596</v>
+        <v>345794.3350133969</v>
       </c>
       <c r="H6" t="n">
-        <v>345880.8966414597</v>
+        <v>345794.335013397</v>
       </c>
       <c r="I6" t="n">
-        <v>319365.9934622139</v>
+        <v>319365.993462213</v>
       </c>
       <c r="J6" t="n">
-        <v>306909.2054538802</v>
+        <v>306842.0099636546</v>
       </c>
       <c r="K6" t="n">
-        <v>354051.2976126097</v>
+        <v>353984.1021223841</v>
       </c>
       <c r="L6" t="n">
-        <v>350471.2861140794</v>
+        <v>350409.7539452183</v>
       </c>
       <c r="M6" t="n">
-        <v>151676.3445206657</v>
+        <v>151676.344520663</v>
       </c>
       <c r="N6" t="n">
-        <v>332600.4666079035</v>
+        <v>332600.4666079074</v>
       </c>
       <c r="O6" t="n">
-        <v>349171.9945768022</v>
+        <v>349171.994576802</v>
       </c>
       <c r="P6" t="n">
-        <v>349171.9945768017</v>
+        <v>349171.994576802</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I2" t="n">
         <v>46.97513661859254</v>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>834.5914874586056</v>
+        <v>834.5914874586161</v>
       </c>
       <c r="F4" t="n">
-        <v>902.2505367626777</v>
+        <v>902.2505367626736</v>
       </c>
       <c r="G4" t="n">
-        <v>902.2505367626777</v>
+        <v>902.2505367626736</v>
       </c>
       <c r="H4" t="n">
-        <v>902.2505367626777</v>
+        <v>902.2505367626736</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.959124249915712</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="M2" t="n">
-        <v>43.01601236867684</v>
+        <v>43.01601236867669</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1.390217802891389e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>819.2887499434705</v>
+        <v>819.2887499434811</v>
       </c>
       <c r="F4" t="n">
-        <v>67.65904930407214</v>
+        <v>67.65904930405748</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>112.0859244459369</v>
+        <v>112.085924445941</v>
       </c>
       <c r="J4" t="n">
-        <v>180.1764693963156</v>
+        <v>180.1764693963152</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>654.4150180622897</v>
+        <v>654.4150180623008</v>
       </c>
       <c r="N4" t="n">
-        <v>67.65904930407214</v>
+        <v>67.65904930405748</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>819.2887499434705</v>
+        <v>819.2887499434811</v>
       </c>
       <c r="N4" t="n">
-        <v>67.65904930407214</v>
+        <v>67.65904930405748</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214545259</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0.7465913262583115</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,16 +27509,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1647286948234</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9413820809753</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609201</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229317</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106967</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>86.16204325169484</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>366.6622781495295</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>132.3371525163108</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>99.50338435942338</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>156.4896106304034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>275.7657878683665</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859248</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859341</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M19" t="n">
         <v>46.97513661859254</v>
@@ -28758,7 +28758,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859307</v>
       </c>
       <c r="P19" t="n">
         <v>46.97513661859254</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859335</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="23">
@@ -29232,7 +29232,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
         <v>46.97513661859254</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="C32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="D32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="E32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="F32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="G32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="H32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="I32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="T32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="U32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="V32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="W32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="X32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="C34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="D34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="E34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="F34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="G34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="H34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="I34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="J34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="K34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="L34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="M34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="N34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="O34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="P34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="R34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="S34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="T34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="U34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="V34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="W34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="X34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.959124249915715</v>
+        <v>3.959124249915836</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="38">
@@ -30642,7 +30642,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L43" t="n">
         <v>46.97513661859256</v>
@@ -30715,7 +30715,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859215</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
         <v>46.97513661859256</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026442</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-1.837363033884704e-12</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34863,13 +34863,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="M8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
         <v>14.68444509028111</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>468.2213524335318</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>520.684238929377</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>296.5150060543288</v>
+        <v>296.5150060543127</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K16" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,10 +35820,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>339.6936123181638</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>679.2957225150375</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597749</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887915</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412328</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>382.9119878059936</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>819.4548521258924</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36288,7 +36288,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861334</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>782.8881772547622</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36595,22 +36595,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37005,7 +37005,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
         <v>78.39423853789366</v>
@@ -37072,10 +37072,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>824.3002057428846</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>823.0310418422227</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,10 +37084,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.53754086298194</v>
+        <v>49.53754086298206</v>
       </c>
       <c r="K34" t="n">
-        <v>210.0067837942353</v>
+        <v>210.0067837942354</v>
       </c>
       <c r="L34" t="n">
-        <v>323.7164964201138</v>
+        <v>323.7164964201139</v>
       </c>
       <c r="M34" t="n">
-        <v>351.5925036433995</v>
+        <v>351.5925036433997</v>
       </c>
       <c r="N34" t="n">
-        <v>348.8160704174558</v>
+        <v>348.8160704174559</v>
       </c>
       <c r="O34" t="n">
-        <v>306.3122544725555</v>
+        <v>306.3122544725556</v>
       </c>
       <c r="P34" t="n">
-        <v>238.9161953950261</v>
+        <v>238.9161953950263</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.35336278780937</v>
+        <v>82.35336278780949</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>632.5715920432235</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37549,22 +37549,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37780,13 +37780,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>377.2134278768862</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,10 +37795,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>418.5312714465555</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37938,7 +37938,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>661.0373289644832</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>632.571592043224</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316584</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38187,13 +38187,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
